--- a/SOURCES/kiCAD/FreeDSP_OCTAVIA_0v1_BOM-LIST.xlsx
+++ b/SOURCES/kiCAD/FreeDSP_OCTAVIA_0v1_BOM-LIST.xlsx
@@ -5,20 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/HILO/Documents/KICAD_DATA/FreeDSP-OCTAVIA/FreeDSP_OCTAVIA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/HILO/Documents/KICAD_DATA/FreeDSP-OCTAVIA/FreeDSP_OCTAVIA/SOURCES/kiCAD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35AA866A-1FB7-9B49-9487-46D07AD48226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B01320-E120-F943-877C-F6E5543B3D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18240" yWindow="4980" windowWidth="41120" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2160" yWindow="5740" windowWidth="41120" windowHeight="21040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Separate" sheetId="3" r:id="rId1"/>
     <sheet name="Collated" sheetId="4" r:id="rId2"/>
+    <sheet name="HandMount" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">HandMount!$A$3:$AC$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Separate!$A$4:$AE$4</definedName>
     <definedName name="FreeDSP_OCTAVIA" localSheetId="0">Separate!$A$1:$H$478</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">HandMount!$B$3:$G$23</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -79,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2989" uniqueCount="1116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3189" uniqueCount="1144">
   <si>
     <t>Date:</t>
   </si>
@@ -3392,10 +3395,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Amanero Combo384  or Compatible Module</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>OPTION</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3438,6 +3437,122 @@
   </si>
   <si>
     <t>Remove if XLR Balanced Output</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Collated Components:</t>
+  </si>
+  <si>
+    <t>Datasheet/Shop URL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://akizukidenshi.com/catalog/g/gC-06568/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://akizukidenshi.com/catalog/g/gP-03605/
+https://akizukidenshi.com/catalog/g/gP-12577/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SR10010F-0204-20F0B-C7-N-0027_ALT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://akizukidenshi.com/catalog/g/gP-16034/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://akizukidenshi.com/catalog/g/gP-08077/</t>
+  </si>
+  <si>
+    <t>https://akizukidenshi.com/catalog/g/gP-08077/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://akizukidenshi.com/catalog/g/gP-13796/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://akizukidenshi.com/catalog/g/gC-09597/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://akizukidenshi.com/catalog/g/gC-09598/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GP1UXC41QS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://akizukidenshi.com/catalog/g/gI-06487/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PE-65612NL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://akizukidenshi.com/catalog/g/gP-11906/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://akizukidenshi.com/catalog/g/gC-13178/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://akizukidenshi.com/catalog/g/gC-12480/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://akizukidenshi.com/catalog/g/gC-06508/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://akizukidenshi.com/catalog/g/gC-00083/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://akizukidenshi.com/catalog/g/gC-00085/
+https://akizukidenshi.com/catalog/g/gC-10702/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://akizukidenshi.com/catalog/g/gP-08378/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://akizukidenshi.com/catalog/g/gP-05037/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://akizukidenshi.com/catalog/g/gP-04332/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://akizukidenshi.com/catalog/g/gP-04621/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://akizukidenshi.com/catalog/g/gP-10272/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MyLibrary:Combo384</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Amanero Combo384  or Compatible Module 20P Socket</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Combo384 20P Socket </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Conn_02x20_Odd_Even Socket</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3445,7 +3560,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3488,8 +3603,41 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3502,8 +3650,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF305496"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -3526,13 +3680,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3563,8 +3746,63 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3883,9 +4121,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I475"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A388" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G401" sqref="G401"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -3903,7 +4141,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="33">
       <c r="A1" s="9" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="C1" s="1"/>
     </row>
@@ -3966,10 +4204,10 @@
         <v>5</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>6</v>
+        <v>1140</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>1103</v>
+        <v>1141</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
@@ -3977,7 +4215,7 @@
     <row r="6" spans="1:9">
       <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
@@ -3990,7 +4228,7 @@
         <v>74</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
@@ -4188,7 +4426,7 @@
     <row r="17" spans="1:9">
       <c r="A17" s="5"/>
       <c r="B17" s="5" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5" t="s">
@@ -4207,7 +4445,7 @@
     <row r="18" spans="1:9">
       <c r="A18" s="5"/>
       <c r="B18" s="5" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5" t="s">
@@ -4226,7 +4464,7 @@
     <row r="19" spans="1:9">
       <c r="A19" s="5"/>
       <c r="B19" s="5" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5" t="s">
@@ -4245,7 +4483,7 @@
     <row r="20" spans="1:9">
       <c r="A20" s="5"/>
       <c r="B20" s="5" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5" t="s">
@@ -4260,13 +4498,13 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="5"/>
       <c r="B21" s="5" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5" t="s">
@@ -4285,7 +4523,7 @@
     <row r="22" spans="1:9">
       <c r="A22" s="5"/>
       <c r="B22" s="5" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
@@ -4298,17 +4536,17 @@
         <v>78</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H22" s="5"/>
       <c r="I22" s="5" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="5"/>
       <c r="B23" s="5" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5" t="s">
@@ -4321,7 +4559,7 @@
         <v>80</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
@@ -4329,7 +4567,7 @@
     <row r="24" spans="1:9">
       <c r="A24" s="5"/>
       <c r="B24" s="5" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5" t="s">
@@ -4348,7 +4586,7 @@
     <row r="25" spans="1:9">
       <c r="A25" s="5"/>
       <c r="B25" s="5" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5" t="s">
@@ -4363,13 +4601,13 @@
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="5"/>
       <c r="B26" s="5" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5" t="s">
@@ -4384,13 +4622,13 @@
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="5"/>
       <c r="B27" s="5" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5" t="s">
@@ -4405,13 +4643,13 @@
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="5"/>
       <c r="B28" s="5" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5" t="s">
@@ -4426,13 +4664,13 @@
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="5"/>
       <c r="B29" s="5" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5" t="s">
@@ -4451,7 +4689,7 @@
     <row r="30" spans="1:9">
       <c r="A30" s="5"/>
       <c r="B30" s="5" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5" t="s">
@@ -4470,7 +4708,7 @@
     <row r="31" spans="1:9">
       <c r="A31" s="5"/>
       <c r="B31" s="5" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5" t="s">
@@ -4489,7 +4727,7 @@
     <row r="32" spans="1:9">
       <c r="A32" s="5"/>
       <c r="B32" s="5" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5" t="s">
@@ -4508,7 +4746,7 @@
     <row r="33" spans="1:9">
       <c r="A33" s="5"/>
       <c r="B33" s="5" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5" t="s">
@@ -4527,7 +4765,7 @@
     <row r="34" spans="1:9">
       <c r="A34" s="5"/>
       <c r="B34" s="5" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5" t="s">
@@ -4791,7 +5029,7 @@
       </c>
       <c r="H47" s="5"/>
       <c r="I47" s="5" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -10986,7 +11224,7 @@
         <v>113</v>
       </c>
       <c r="G372" s="5" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="H372" s="5"/>
       <c r="I372" s="5"/>
@@ -11653,7 +11891,7 @@
         <v>113</v>
       </c>
       <c r="G407" s="5" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="H407" s="5"/>
       <c r="I407" s="5"/>
@@ -11674,7 +11912,7 @@
         <v>113</v>
       </c>
       <c r="G408" s="5" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="H408" s="5"/>
       <c r="I408" s="5"/>
@@ -11695,7 +11933,7 @@
         <v>113</v>
       </c>
       <c r="G409" s="5" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="H409" s="5"/>
       <c r="I409" s="5"/>
@@ -11716,7 +11954,7 @@
         <v>113</v>
       </c>
       <c r="G410" s="5" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="H410" s="5"/>
       <c r="I410" s="5"/>
@@ -12657,7 +12895,7 @@
         <v>170</v>
       </c>
       <c r="G459" s="5" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="H459" s="5"/>
       <c r="I459" s="5"/>
@@ -12678,7 +12916,7 @@
         <v>170</v>
       </c>
       <c r="G460" s="5" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="H460" s="5"/>
       <c r="I460" s="5"/>
@@ -12699,7 +12937,7 @@
         <v>170</v>
       </c>
       <c r="G461" s="5" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="H461" s="5"/>
       <c r="I461" s="5"/>
@@ -12720,7 +12958,7 @@
         <v>170</v>
       </c>
       <c r="G462" s="5" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="H462" s="5"/>
       <c r="I462" s="5"/>
@@ -13000,6 +13238,7 @@
   </autoFilter>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -13009,7 +13248,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="A76" sqref="A76:XFD76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -16881,5 +17120,1111 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD35454B-098B-4C4D-B448-CCAD4DB38D73}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AC23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" style="8"/>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.5703125" customWidth="1"/>
+    <col min="6" max="6" width="54" customWidth="1"/>
+    <col min="7" max="7" width="77.5703125" customWidth="1"/>
+    <col min="14" max="14" width="82.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29">
+      <c r="A1" s="14" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+    </row>
+    <row r="2" spans="1:29">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="11"/>
+    </row>
+    <row r="3" spans="1:29" s="16" customFormat="1" ht="42">
+      <c r="A3" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>1116</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q3" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="R3" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="S3" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="T3" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="U3" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="V3" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="W3" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="X3" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y3" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="Z3" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA3" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="AB3" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="AC3" s="15" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="21">
+      <c r="A4" s="14" t="s">
+        <v>906</v>
+      </c>
+      <c r="B4" s="20">
+        <v>1</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="11"/>
+    </row>
+    <row r="5" spans="1:29" ht="21">
+      <c r="A5" s="14" t="s">
+        <v>907</v>
+      </c>
+      <c r="B5" s="20">
+        <v>1</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>1139</v>
+      </c>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="11"/>
+    </row>
+    <row r="6" spans="1:29" ht="21">
+      <c r="A6" s="14" t="s">
+        <v>908</v>
+      </c>
+      <c r="B6" s="20">
+        <v>1</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>1136</v>
+      </c>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+    </row>
+    <row r="7" spans="1:29" ht="21">
+      <c r="A7" s="14" t="s">
+        <v>914</v>
+      </c>
+      <c r="B7" s="20">
+        <v>1</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>1137</v>
+      </c>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="11"/>
+    </row>
+    <row r="8" spans="1:29" ht="21">
+      <c r="A8" s="14" t="s">
+        <v>918</v>
+      </c>
+      <c r="B8" s="20">
+        <v>2</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>919</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>1138</v>
+      </c>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+    </row>
+    <row r="9" spans="1:29" ht="21">
+      <c r="A9" s="14" t="s">
+        <v>973</v>
+      </c>
+      <c r="B9" s="20">
+        <v>1</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>459</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>460</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>1117</v>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="11"/>
+    </row>
+    <row r="10" spans="1:29" ht="63">
+      <c r="A10" s="14" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B10" s="20">
+        <v>5</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>790</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>1118</v>
+      </c>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="11"/>
+    </row>
+    <row r="11" spans="1:29" ht="21">
+      <c r="A11" s="14" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B11" s="20">
+        <v>1</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>795</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>796</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>1120</v>
+      </c>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11">
+        <v>11.5</v>
+      </c>
+      <c r="S11" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11" t="s">
+        <v>798</v>
+      </c>
+      <c r="W11" s="11" t="s">
+        <v>799</v>
+      </c>
+      <c r="X11" s="11" t="s">
+        <v>800</v>
+      </c>
+      <c r="Y11" s="11" t="s">
+        <v>801</v>
+      </c>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="11"/>
+    </row>
+    <row r="12" spans="1:29" ht="21">
+      <c r="A12" s="14" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B12" s="20">
+        <v>1</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>802</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>803</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>1122</v>
+      </c>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="11"/>
+      <c r="AC12" s="11"/>
+    </row>
+    <row r="13" spans="1:29" ht="21">
+      <c r="A13" s="14" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B13" s="20">
+        <v>2</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>805</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="11"/>
+      <c r="AC13" s="11"/>
+    </row>
+    <row r="14" spans="1:29" ht="21">
+      <c r="A14" s="14" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B14" s="20">
+        <v>1</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>809</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>810</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>1121</v>
+      </c>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11" t="s">
+        <v>812</v>
+      </c>
+      <c r="M14" s="11" t="s">
+        <v>811</v>
+      </c>
+      <c r="N14" s="11" t="s">
+        <v>813</v>
+      </c>
+      <c r="O14" s="11" t="s">
+        <v>814</v>
+      </c>
+      <c r="P14" s="11" t="s">
+        <v>815</v>
+      </c>
+      <c r="Q14" s="11" t="s">
+        <v>816</v>
+      </c>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="T14" s="11" t="s">
+        <v>817</v>
+      </c>
+      <c r="U14" s="11" t="s">
+        <v>818</v>
+      </c>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="AC14" s="11"/>
+    </row>
+    <row r="15" spans="1:29" ht="21">
+      <c r="A15" s="14" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B15" s="20">
+        <v>1</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>819</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>1128</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>820</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>1129</v>
+      </c>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>822</v>
+      </c>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11">
+        <v>6.6</v>
+      </c>
+      <c r="S15" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11" t="s">
+        <v>823</v>
+      </c>
+      <c r="W15" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="X15" s="11" t="s">
+        <v>824</v>
+      </c>
+      <c r="Y15" s="11" t="s">
+        <v>825</v>
+      </c>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="11"/>
+      <c r="AC15" s="11"/>
+    </row>
+    <row r="16" spans="1:29" ht="21">
+      <c r="A16" s="14" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B16" s="20">
+        <v>1</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>826</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>827</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>1127</v>
+      </c>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11" t="s">
+        <v>829</v>
+      </c>
+      <c r="M16" s="11" t="s">
+        <v>828</v>
+      </c>
+      <c r="N16" s="11" t="s">
+        <v>830</v>
+      </c>
+      <c r="O16" s="11" t="s">
+        <v>831</v>
+      </c>
+      <c r="P16" s="11" t="s">
+        <v>832</v>
+      </c>
+      <c r="Q16" s="11" t="s">
+        <v>833</v>
+      </c>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="T16" s="11" t="s">
+        <v>834</v>
+      </c>
+      <c r="U16" s="11" t="s">
+        <v>835</v>
+      </c>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="AC16" s="11"/>
+    </row>
+    <row r="17" spans="1:29" ht="21">
+      <c r="A17" s="14" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B17" s="20">
+        <v>1</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>836</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>837</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>1124</v>
+      </c>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="11"/>
+      <c r="AC17" s="11"/>
+    </row>
+    <row r="18" spans="1:29" ht="21">
+      <c r="A18" s="14" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B18" s="20">
+        <v>1</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>842</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>843</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>1125</v>
+      </c>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="11"/>
+      <c r="AB18" s="11"/>
+      <c r="AC18" s="11"/>
+    </row>
+    <row r="19" spans="1:29" ht="21">
+      <c r="A19" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="B19" s="26">
+        <v>1</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>473</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>1130</v>
+      </c>
+      <c r="S19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" ht="42">
+      <c r="A20" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="B20" s="26">
+        <v>4</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>982</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>1131</v>
+      </c>
+      <c r="S20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" ht="21">
+      <c r="A21" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="B21" s="26">
+        <v>1</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>471</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>1132</v>
+      </c>
+      <c r="S21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" ht="21">
+      <c r="A22" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="B22" s="26">
+        <v>1</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>1133</v>
+      </c>
+      <c r="S22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" ht="42">
+      <c r="A23" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B23" s="26">
+        <v>1</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>510</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G23" s="27" t="s">
+        <v>1134</v>
+      </c>
+      <c r="S23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:AC3" xr:uid="{DD35454B-098B-4C4D-B448-CCAD4DB38D73}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AC140">
+      <sortCondition descending="1" ref="S3:S140"/>
+    </sortState>
+  </autoFilter>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="G9" r:id="rId1" xr:uid="{E5A87882-1830-DF4B-AF30-3E29967572EC}"/>
+    <hyperlink ref="G11" r:id="rId2" xr:uid="{0CFA4327-3E57-0F48-8442-514C25AA3BAE}"/>
+    <hyperlink ref="G12" r:id="rId3" xr:uid="{F33E9646-3439-A648-B827-D2A36176864A}"/>
+    <hyperlink ref="G13" r:id="rId4" xr:uid="{6BACF6A2-AB5A-2F4E-BC2A-A8E80C470C0B}"/>
+    <hyperlink ref="G17" r:id="rId5" xr:uid="{E770CE05-0165-094B-9D1F-F1D9B962E0D1}"/>
+    <hyperlink ref="G18" r:id="rId6" xr:uid="{5832F298-3CF4-D14A-9266-618B2A4F1DE4}"/>
+    <hyperlink ref="G16" r:id="rId7" xr:uid="{1F80D76C-6DDB-CC45-9182-5EE201202C8B}"/>
+    <hyperlink ref="G15" r:id="rId8" xr:uid="{AF60EABE-5ED0-9146-9B48-5DE4C55CA239}"/>
+    <hyperlink ref="G19" r:id="rId9" xr:uid="{42833F2D-BD07-4F49-BD16-0E2D58587036}"/>
+    <hyperlink ref="G20" r:id="rId10" xr:uid="{E54B4AD1-2FB9-3E46-918C-BDA009675BB2}"/>
+    <hyperlink ref="G21" r:id="rId11" xr:uid="{A5A76515-D49E-4D4F-9644-4BC49CBABDF8}"/>
+    <hyperlink ref="G22" r:id="rId12" xr:uid="{E2EB9D4B-7FC2-E241-9091-6B7E2307109D}"/>
+    <hyperlink ref="G4" r:id="rId13" xr:uid="{5CDF6D36-7B77-8644-8C72-3C0EEFCAADF2}"/>
+    <hyperlink ref="G6" r:id="rId14" xr:uid="{F21E0165-A923-C247-8154-EB95ABF59049}"/>
+    <hyperlink ref="G7" r:id="rId15" xr:uid="{F122C824-966A-4543-A3E8-3CCE648E9C3F}"/>
+    <hyperlink ref="G8" r:id="rId16" xr:uid="{641BFDE0-3A00-EF47-8E10-19053D72AF6D}"/>
+    <hyperlink ref="G5" r:id="rId17" xr:uid="{23E98FA2-53FC-F549-A02E-6298B267BDF1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="55" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>